--- a/Data/Porosity.BMFL.xlsx
+++ b/Data/Porosity.BMFL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suzanneguy/R_Projects/MS_Thesis_Data_Analysis/MS_Thesis_Stats/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3422FE6F-F8E6-B441-99CC-0B5761A01C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECF52E5-280B-AA4E-9A41-AE65C05B7DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="1220" windowWidth="28040" windowHeight="16180" xr2:uid="{31D39E28-0914-3C41-8F38-C5A34527FB26}"/>
+    <workbookView xWindow="760" yWindow="1220" windowWidth="28040" windowHeight="16180" xr2:uid="{31D39E28-0914-3C41-8F38-C5A34527FB26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -615,7 +615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F377E1A5-47C2-004B-8361-2D7B53537D38}">
   <dimension ref="A1:X272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
       <selection activeCell="F219" sqref="F219"/>
     </sheetView>
   </sheetViews>
